--- a/data/original/exercises/020-qualtrics/040-summative.xlsx
+++ b/data/original/exercises/020-qualtrics/040-summative.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,6 +600,441 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44523.84451388889</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44523.84770833334</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>275</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>44523.84771990741</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1pogus</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>library(readxl)
+cmv &lt;- data/cmv.xlsx
+cmv %&gt;%
+  cmv_tidy &lt;- pivot_longer(donor_negative:donor_positive, names_to = "donor_status")</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44523.84465277778</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44523.8491087963</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>385</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44523.84912037037</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3mihar</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>cmv &lt;- read_excel("data/cmv.xlsx")
+cmv_subset &lt;- cmv %&gt;% 
+filter(age &gt; 65)
+write_csv(cmv_subset, "data/cmv_subset.csv")
+cmv_tidy &lt;- cmv %&gt;% 
+pivot_longer(cols = donor_negative:donor_positive, names_to = "donor_status", values_to = "recipient_status") %&gt;% 
+drop_na()
+cmv_tidy %&gt;% 
+group_by(cmv) %&gt;% 
+summarize(mean_age = mean(age))</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44523.84481481482</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44523.85103009259</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>537</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>44523.85103009259</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2dunic</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>library(readxl)
+cmv &lt;- read.table(data/cmv.xlsx)
+cmv_subset &lt;- cmv(col = 'age' = &gt;64)
+cmv_tidy &lt;- cmv_subset %&gt;%
+pivot_longer('0':last_col(), names_to = "donor_status", "recipient_status")
+cmv_tidy
+avarage(age)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44523.84476851852</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44523.85337962963</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>743</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>44523.85337962963</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1dabec</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>library(readxl)
+cmv &lt;- read_xlsx("data/cmv.xlsx")
+cmv_subset &lt;- cmv %&gt;% filter(age &gt; 65)
+cmv %&gt;%
+ pivot_longer(`donor_negative`:last_col(), names_to = "donor_status", values_to = "recipient_status") %&gt;%
+ drop_na()
+grouped_data &lt;- group_by(cmv_tidy, cmv)
+summarise(grouped_data, average = mean(age))</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44523.84472222222</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44523.86057870371</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>1370</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>44523.86059027778</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1bimil</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cmv &lt;- read_excel("data/cmv.xlsx")
+cmv_subset &lt;- cmv %&gt;% 
+  filter(age &gt; 65) %&gt;% 
+  write_csv("data/cmv_subset.csv")
+cmv_tidy &lt;- cmv %&gt;% 
+  pivot_longer(donor_negative:donor_positive, names_to = "donor_status", values_to = "recipient_status") %&gt;% 
+  drop_na()
+cmv_tidy %&gt;% 
+  group_by(cmv) %&gt;% 
+  summarise(average_age = mean(age))
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44523.86260416667</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44523.86299768518</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>34</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>44523.86300925926</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1davec</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+cmv &lt;- read_excel("data/cmv.xlsx")
+cmv_subset &lt;- cmv %&gt;% filter(age &gt; 65)
+write_csv(cmv_subset, "data/cmv_subset.csv")
+cmv &lt;- read_excel("cmv.xlsx")
+cmv_tidy &lt;- cmv %&gt;% pivot_longer(`donor_negative`: last_col()) %&gt;% separate(value, into = c("donor_status", "recipient_status"), sep= 0) %&gt;% drop_na()
+cmv_tidy &lt;- cmv_tidy[-c(7)]
+cmv_tidy &lt;- cmv_tidy %&gt;% rename(donor_status = name)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44518.82976851852</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44518.82983796296</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>44523.87890046297</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>3kusou</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44518.84795138889</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44518.85869212963</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <v>928</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>44523.87898148148</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0garbc</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44523.84482638889</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44523.84958333333</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>411</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>44523.87898148148</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>3+ka+mei</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44523.18445601852</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44523.29313657407</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="F15">
+        <v>9390</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>44523.87903935185</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2nesch</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44523.84469907408</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44523.85349537037</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16">
+        <v>759</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>44523.87905092593</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>3hostc</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
